--- a/requirements_template.xlsx
+++ b/requirements_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\chrigra\RM\Requirement-Management-Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\christopher\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB0A8C-4186-456C-9FC1-0286EAD35F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A6DA1-3B90-449E-B1C6-B6F3AF569227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Parent</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>To be reviewed</t>
-  </si>
-  <si>
     <t>R-Mission-INST-xxxx</t>
   </si>
   <si>
@@ -67,6 +64,30 @@
   </si>
   <si>
     <t>NC, PC, C</t>
+  </si>
+  <si>
+    <t>Reference Documentation</t>
+  </si>
+  <si>
+    <t>Verification Notes</t>
+  </si>
+  <si>
+    <t>Compliance Notes</t>
+  </si>
+  <si>
+    <t>To be reviewed Univie</t>
+  </si>
+  <si>
+    <t>D/R, A, T</t>
+  </si>
+  <si>
+    <t>Applicability</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>(Optional Cat,N,Type)</t>
   </si>
 </sst>
 </file>
@@ -106,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,29 +405,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,30 +457,45 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/requirements_template.xlsx
+++ b/requirements_template.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\christopher\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A6DA1-3B90-449E-B1C6-B6F3AF569227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1277C6-2B89-4A5E-9D84-6F9F8EDE0470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -408,7 +419,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
